--- a/Coltecno/BD/BDatos.xlsx
+++ b/Coltecno/BD/BDatos.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\decckar\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\Repositorios\Coltecno\coltecno\Coltecno\BD\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435"/>
+    <workbookView xWindow="930" yWindow="0" windowWidth="28800" windowHeight="12435"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="40">
   <si>
     <t>HOGAR Y PYMES</t>
   </si>
@@ -306,13 +306,28 @@
 TOUCH SCREEN Sí
 Garantía 12 meses</t>
   </si>
+  <si>
+    <t>Numero de parte</t>
+  </si>
+  <si>
+    <t>IDI001</t>
+  </si>
+  <si>
+    <t>IDI002</t>
+  </si>
+  <si>
+    <t>IDI003</t>
+  </si>
+  <si>
+    <t>IDI004</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
-    <numFmt numFmtId="168" formatCode="[$$-240A]#,##0"/>
+    <numFmt numFmtId="164" formatCode="[$$-240A]#,##0"/>
   </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
@@ -393,15 +408,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -422,17 +431,23 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -455,13 +470,13 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>6</xdr:col>
+      <xdr:col>7</xdr:col>
       <xdr:colOff>152402</xdr:colOff>
       <xdr:row>2</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
+      <xdr:col>7</xdr:col>
       <xdr:colOff>1419226</xdr:colOff>
       <xdr:row>2</xdr:row>
       <xdr:rowOff>1260177</xdr:rowOff>
@@ -499,13 +514,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>6</xdr:col>
+      <xdr:col>7</xdr:col>
       <xdr:colOff>19050</xdr:colOff>
       <xdr:row>1</xdr:row>
       <xdr:rowOff>9526</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
+      <xdr:col>7</xdr:col>
       <xdr:colOff>1282959</xdr:colOff>
       <xdr:row>1</xdr:row>
       <xdr:rowOff>1257300</xdr:rowOff>
@@ -543,13 +558,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>6</xdr:col>
+      <xdr:col>7</xdr:col>
       <xdr:colOff>142875</xdr:colOff>
       <xdr:row>3</xdr:row>
       <xdr:rowOff>19049</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
+      <xdr:col>7</xdr:col>
       <xdr:colOff>1406785</xdr:colOff>
       <xdr:row>3</xdr:row>
       <xdr:rowOff>1266824</xdr:rowOff>
@@ -587,13 +602,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>6</xdr:col>
+      <xdr:col>7</xdr:col>
       <xdr:colOff>104775</xdr:colOff>
       <xdr:row>4</xdr:row>
       <xdr:rowOff>219075</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
+      <xdr:col>7</xdr:col>
       <xdr:colOff>1433513</xdr:colOff>
       <xdr:row>4</xdr:row>
       <xdr:rowOff>1104900</xdr:rowOff>
@@ -631,13 +646,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>6</xdr:col>
+      <xdr:col>7</xdr:col>
       <xdr:colOff>152400</xdr:colOff>
       <xdr:row>6</xdr:row>
       <xdr:rowOff>38100</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
+      <xdr:col>7</xdr:col>
       <xdr:colOff>1381125</xdr:colOff>
       <xdr:row>6</xdr:row>
       <xdr:rowOff>1251139</xdr:rowOff>
@@ -675,13 +690,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>6</xdr:col>
+      <xdr:col>7</xdr:col>
       <xdr:colOff>19051</xdr:colOff>
       <xdr:row>7</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
+      <xdr:col>7</xdr:col>
       <xdr:colOff>1524001</xdr:colOff>
       <xdr:row>7</xdr:row>
       <xdr:rowOff>1155700</xdr:rowOff>
@@ -719,13 +734,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>6</xdr:col>
+      <xdr:col>7</xdr:col>
       <xdr:colOff>123826</xdr:colOff>
       <xdr:row>8</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
+      <xdr:col>7</xdr:col>
       <xdr:colOff>1397384</xdr:colOff>
       <xdr:row>9</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
@@ -763,13 +778,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>6</xdr:col>
+      <xdr:col>7</xdr:col>
       <xdr:colOff>9524</xdr:colOff>
       <xdr:row>9</xdr:row>
       <xdr:rowOff>123825</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
+      <xdr:col>7</xdr:col>
       <xdr:colOff>1509713</xdr:colOff>
       <xdr:row>9</xdr:row>
       <xdr:rowOff>1123951</xdr:rowOff>
@@ -1071,10 +1086,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G17"/>
+  <dimension ref="A1:H17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J3" sqref="J3"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1083,204 +1098,225 @@
     <col min="2" max="2" width="20.85546875" customWidth="1"/>
     <col min="3" max="3" width="15.42578125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="34.7109375" customWidth="1"/>
-    <col min="6" max="6" width="44" customWidth="1"/>
-    <col min="7" max="7" width="23.140625" customWidth="1"/>
+    <col min="5" max="5" width="15.5703125" customWidth="1"/>
+    <col min="7" max="7" width="44" customWidth="1"/>
+    <col min="8" max="8" width="23.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" s="4" t="s">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="E1" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="F1" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="G1" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="G1" s="11" t="s">
+      <c r="H1" s="9" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
+    <row r="2" spans="1:8" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="D2" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="E2" s="13">
+      <c r="E2" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="F2" s="11">
         <v>4949000</v>
       </c>
-      <c r="F2" s="16" t="s">
+      <c r="G2" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="G2" s="3"/>
-    </row>
-    <row r="3" spans="1:7" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="2"/>
-      <c r="B3" s="2"/>
-      <c r="C3" s="4" t="s">
+      <c r="H2" s="2"/>
+    </row>
+    <row r="3" spans="1:8" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="15"/>
+      <c r="B3" s="15"/>
+      <c r="C3" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="D3" s="4" t="s">
+      <c r="D3" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="E3" s="13">
+      <c r="E3" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="F3" s="11">
         <v>2598020</v>
       </c>
-      <c r="F3" s="16" t="s">
+      <c r="G3" s="14" t="s">
         <v>33</v>
       </c>
-      <c r="G3" s="3"/>
-    </row>
-    <row r="4" spans="1:7" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="2"/>
-      <c r="B4" s="4" t="s">
+      <c r="H3" s="2"/>
+    </row>
+    <row r="4" spans="1:8" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="15"/>
+      <c r="B4" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="4" t="s">
+      <c r="C4" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="D4" s="4" t="s">
+      <c r="D4" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="E4" s="13">
+      <c r="E4" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="F4" s="11">
         <v>999900</v>
       </c>
-      <c r="F4" s="16" t="s">
+      <c r="G4" s="14" t="s">
         <v>32</v>
       </c>
-      <c r="G4" s="3"/>
-    </row>
-    <row r="5" spans="1:7" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="2"/>
-      <c r="B5" s="4" t="s">
+      <c r="H4" s="2"/>
+    </row>
+    <row r="5" spans="1:8" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="15"/>
+      <c r="B5" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="4" t="s">
+      <c r="C5" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="D5" s="4" t="s">
+      <c r="D5" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="E5" s="13">
+      <c r="E5" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="F5" s="11">
         <v>599000</v>
       </c>
-      <c r="F5" s="16" t="s">
+      <c r="G5" s="14" t="s">
         <v>31</v>
       </c>
-      <c r="G5" s="3"/>
-    </row>
-    <row r="6" spans="1:7" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="7"/>
-      <c r="B6" s="8"/>
-      <c r="C6" s="9"/>
-      <c r="D6" s="10"/>
-      <c r="E6" s="10"/>
-      <c r="F6" s="14"/>
-      <c r="G6" s="6"/>
-    </row>
-    <row r="7" spans="1:7" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="2" t="s">
+      <c r="H5" s="2"/>
+    </row>
+    <row r="6" spans="1:8" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="5"/>
+      <c r="B6" s="6"/>
+      <c r="C6" s="7"/>
+      <c r="D6" s="8"/>
+      <c r="E6" s="8"/>
+      <c r="F6" s="8"/>
+      <c r="G6" s="12"/>
+      <c r="H6" s="4"/>
+    </row>
+    <row r="7" spans="1:8" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="B7" s="2" t="s">
+      <c r="B7" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="C7" s="2" t="s">
+      <c r="C7" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="D7" s="12" t="s">
+      <c r="D7" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="E7" s="13">
+      <c r="E7" s="10"/>
+      <c r="F7" s="11">
         <v>29757600</v>
       </c>
-      <c r="F7" s="15" t="s">
+      <c r="G7" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="G7" s="3"/>
-    </row>
-    <row r="8" spans="1:7" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="2"/>
-      <c r="B8" s="2"/>
-      <c r="C8" s="2"/>
-      <c r="D8" s="12" t="s">
+      <c r="H7" s="2"/>
+    </row>
+    <row r="8" spans="1:8" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="15"/>
+      <c r="B8" s="15"/>
+      <c r="C8" s="15"/>
+      <c r="D8" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="E8" s="13">
+      <c r="E8" s="10"/>
+      <c r="F8" s="11">
         <v>9657000</v>
       </c>
-      <c r="F8" s="15" t="s">
+      <c r="G8" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="G8" s="3"/>
-    </row>
-    <row r="9" spans="1:7" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="2"/>
-      <c r="B9" s="5" t="s">
+      <c r="H8" s="2"/>
+    </row>
+    <row r="9" spans="1:8" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="15"/>
+      <c r="B9" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="C9" s="2" t="s">
+      <c r="C9" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="D9" s="4" t="s">
+      <c r="D9" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="E9" s="13">
+      <c r="E9" s="3"/>
+      <c r="F9" s="11">
         <v>6597000</v>
       </c>
-      <c r="F9" s="15" t="s">
+      <c r="G9" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="G9" s="3"/>
-    </row>
-    <row r="10" spans="1:7" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="2"/>
-      <c r="B10" s="5"/>
-      <c r="C10" s="2"/>
-      <c r="D10" s="4" t="s">
+      <c r="H9" s="2"/>
+    </row>
+    <row r="10" spans="1:8" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="15"/>
+      <c r="B10" s="16"/>
+      <c r="C10" s="15"/>
+      <c r="D10" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="E10" s="13">
+      <c r="E10" s="3"/>
+      <c r="F10" s="11">
         <v>6747000</v>
       </c>
-      <c r="F10" s="15" t="s">
+      <c r="G10" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="G10" s="3"/>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H10" s="2"/>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="1"/>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="1"/>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="1"/>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="1"/>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="1"/>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="1"/>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.25">
